--- a/va_facility_data_2025-02-20/Nonconnah Boulevard VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Nonconnah%20Boulevard%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Nonconnah Boulevard VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Nonconnah%20Boulevard%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R10ff29b042ef468982c7d0c339a02cb1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R22dd212e5d60420c97af1d555e05c20d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfb4595bc504e472e9f92c331c580b0b8"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R69fcdfeddc6c4ce0a95109e7f6a8c635"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R871dbd7ede804409b2fb01b8c8eef14e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R89c5a563dadd4f09869465a2a4e857d2"/>
   </x:sheets>
 </x:workbook>
 </file>
